--- a/Bees/xlsx/pfTurntable.xlsx
+++ b/Bees/xlsx/pfTurntable.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cici\Desktop\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A23FD5F-6A38-4B5D-A7A4-A4B514310D76}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,30 +19,25 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>realMoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>speedup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>doubleIncome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,7 +72,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -91,19 +81,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -145,7 +127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,27 +159,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,24 +193,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,171 +368,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="12.8984375" customWidth="1"/>
-    <col min="4" max="4" width="13.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.8984375" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.25</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -596,12 +542,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -609,12 +555,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bees/xlsx/pfTurntable.xlsx
+++ b/Bees/xlsx/pfTurntable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -31,13 +31,233 @@
   </si>
   <si>
     <t>doubleIncome</t>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟加速</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>buff</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>当前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟的收入</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟加速</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>buff</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟的收入</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟的收入</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟加速</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>buff+2min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双倍收益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟的收入</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金红包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +269,13 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -72,9 +299,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -369,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -380,9 +611,10 @@
     <col min="3" max="3" width="11.375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="67.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -398,8 +630,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -415,8 +650,11 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -432,8 +670,11 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -449,8 +690,11 @@
       <c r="E4" s="1">
         <v>2</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -466,8 +710,11 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -483,8 +730,11 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -500,8 +750,11 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -517,8 +770,11 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -533,11 +789,15 @@
       </c>
       <c r="E9" s="1">
         <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
